--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H2">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I2">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J2">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>799.0546222705433</v>
+        <v>343.7107147034375</v>
       </c>
       <c r="R2">
-        <v>7191.49160043489</v>
+        <v>3093.396432330938</v>
       </c>
       <c r="S2">
-        <v>0.4632527398926566</v>
+        <v>0.5243446358062605</v>
       </c>
       <c r="T2">
-        <v>0.4632527398926565</v>
+        <v>0.5243446358062605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H3">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I3">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J3">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>217.8003086173911</v>
+        <v>51.40386966000221</v>
       </c>
       <c r="R3">
-        <v>1960.20277755652</v>
+        <v>462.6348269400199</v>
       </c>
       <c r="S3">
-        <v>0.1262699531475973</v>
+        <v>0.07841868805039255</v>
       </c>
       <c r="T3">
-        <v>0.1262699531475973</v>
+        <v>0.07841868805039255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H4">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I4">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J4">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>108.5587038283098</v>
+        <v>16.63768058069867</v>
       </c>
       <c r="R4">
-        <v>977.028334454788</v>
+        <v>149.739125226288</v>
       </c>
       <c r="S4">
-        <v>0.06293702030626981</v>
+        <v>0.02538145653176545</v>
       </c>
       <c r="T4">
-        <v>0.0629370203062698</v>
+        <v>0.02538145653176544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H5">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I5">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J5">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>472.5869404645184</v>
+        <v>92.43966941631422</v>
       </c>
       <c r="R5">
-        <v>4253.282464180666</v>
+        <v>831.957024746828</v>
       </c>
       <c r="S5">
-        <v>0.2739827652652659</v>
+        <v>0.1410204649452658</v>
       </c>
       <c r="T5">
-        <v>0.2739827652652658</v>
+        <v>0.1410204649452658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.709232</v>
       </c>
       <c r="I6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>18.02268631352</v>
+        <v>32.84723394945066</v>
       </c>
       <c r="R6">
-        <v>162.20417682168</v>
+        <v>295.625105545056</v>
       </c>
       <c r="S6">
-        <v>0.01044867094472198</v>
+        <v>0.05010978763734039</v>
       </c>
       <c r="T6">
-        <v>0.01044867094472198</v>
+        <v>0.05010978763734039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.709232</v>
       </c>
       <c r="I7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>4.912488498026667</v>
@@ -883,10 +883,10 @@
         <v>44.21239648224</v>
       </c>
       <c r="S7">
-        <v>0.002848020264165998</v>
+        <v>0.007494200448835977</v>
       </c>
       <c r="T7">
-        <v>0.002848020264165997</v>
+        <v>0.007494200448835977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.709232</v>
       </c>
       <c r="I8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>2.448542829450667</v>
+        <v>1.590005091584</v>
       </c>
       <c r="R8">
-        <v>22.036885465056</v>
+        <v>14.310045824256</v>
       </c>
       <c r="S8">
-        <v>0.001419545226162888</v>
+        <v>0.002425617256058076</v>
       </c>
       <c r="T8">
-        <v>0.001419545226162888</v>
+        <v>0.002425617256058076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.709232</v>
       </c>
       <c r="I9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>10.65920394735467</v>
+        <v>8.834136724970667</v>
       </c>
       <c r="R9">
-        <v>95.93283552619201</v>
+        <v>79.507230524736</v>
       </c>
       <c r="S9">
-        <v>0.006179684462190368</v>
+        <v>0.01347683387675062</v>
       </c>
       <c r="T9">
-        <v>0.006179684462190367</v>
+        <v>0.01347683387675062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H10">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>37.35081195829833</v>
+        <v>65.90824381138931</v>
       </c>
       <c r="R10">
-        <v>336.157307624685</v>
+        <v>593.1741943025039</v>
       </c>
       <c r="S10">
-        <v>0.02165417168569824</v>
+        <v>0.1005456990996956</v>
       </c>
       <c r="T10">
-        <v>0.02165417168569824</v>
+        <v>0.1005456990996956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H11">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>10.18080384606444</v>
+        <v>9.856948385573331</v>
       </c>
       <c r="R11">
-        <v>91.62723461457999</v>
+        <v>88.71253547015999</v>
       </c>
       <c r="S11">
-        <v>0.005902331510951717</v>
+        <v>0.01503717454910888</v>
       </c>
       <c r="T11">
-        <v>0.005902331510951716</v>
+        <v>0.01503717454910888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H12">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>5.074441246089111</v>
+        <v>3.190358232256</v>
       </c>
       <c r="R12">
-        <v>45.669971214802</v>
+        <v>28.713224090304</v>
       </c>
       <c r="S12">
-        <v>0.002941912536586482</v>
+        <v>0.004867020880705314</v>
       </c>
       <c r="T12">
-        <v>0.002941912536586481</v>
+        <v>0.004867020880705313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H13">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>22.09048725239878</v>
+        <v>17.72576765606933</v>
       </c>
       <c r="R13">
-        <v>198.814385271589</v>
+        <v>159.531908904624</v>
       </c>
       <c r="S13">
-        <v>0.01280698272686131</v>
+        <v>0.02704137749685087</v>
       </c>
       <c r="T13">
-        <v>0.01280698272686131</v>
+        <v>0.02704137749685087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H14">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N14">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q14">
-        <v>8.069703896638332</v>
+        <v>4.395800831229111</v>
       </c>
       <c r="R14">
-        <v>72.627335069745</v>
+        <v>39.562207481062</v>
       </c>
       <c r="S14">
-        <v>0.004678419141882443</v>
+        <v>0.006705972456856415</v>
       </c>
       <c r="T14">
-        <v>0.004678419141882443</v>
+        <v>0.006705972456856415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H15">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q15">
-        <v>2.199579290517777</v>
+        <v>0.6574167266644444</v>
       </c>
       <c r="R15">
-        <v>19.79621361466</v>
+        <v>5.916750539979999</v>
       </c>
       <c r="S15">
-        <v>0.001275208358157156</v>
+        <v>0.001002915880621409</v>
       </c>
       <c r="T15">
-        <v>0.001275208358157156</v>
+        <v>0.001002915880621409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H16">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N16">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q16">
-        <v>1.096341314950444</v>
+        <v>0.2127833873013334</v>
       </c>
       <c r="R16">
-        <v>9.867071834554</v>
+        <v>1.915050485712</v>
       </c>
       <c r="S16">
-        <v>0.0006356050060321817</v>
+        <v>0.0003246096875868626</v>
       </c>
       <c r="T16">
-        <v>0.0006356050060321817</v>
+        <v>0.0003246096875868625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H17">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N17">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q17">
-        <v>4.772685832328111</v>
+        <v>1.182233658352444</v>
       </c>
       <c r="R17">
-        <v>42.954172490953</v>
+        <v>10.640102925172</v>
       </c>
       <c r="S17">
-        <v>0.002766969524799616</v>
+        <v>0.001803545395905331</v>
       </c>
       <c r="T17">
-        <v>0.002766969524799616</v>
+        <v>0.001803545395905331</v>
       </c>
     </row>
   </sheetData>
